--- a/data/trans_camb/P26-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P26-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P26-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P26-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,14</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,56</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,98; 13,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,42; 9,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,06; -9,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,4; 29,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,59; 6,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,31; -14,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 16,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,21; 4,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,41; -16,16</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,82%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,21; 49,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,72; 35,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,87; -31,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,34; 100,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,55; 22,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,47; -51,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 57,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,81; 14,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,84; -52,04</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,3</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,63</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,23</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,08; 4,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; 2,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,02; -14,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,74; 3,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,21; -4,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,18; -24,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,33; 2,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,63; -2,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,51; -21,16</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,84%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,17; 20,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,07; 11,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,31; -57,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,91; 10,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,74; -14,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,14; -70,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,54; 8,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,99; -8,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,75; -68,46</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,63</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 8,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,52; -0,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,63; 1,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 7,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,11; -8,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,89; -19,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 6,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,74; -5,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,74; -10,38</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,17%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 32,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,59; -2,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,06; 4,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,19; 20,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,85; -22,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,3; -55,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 20,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,47; -17,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,94; -31,44</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,68</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 8,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,52; 3,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,14; -13,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 10,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,76; 4,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,99; -16,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 8,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,87; 2,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,56; -15,92</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,47%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,32%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,21%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,28%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; 30,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,25; 13,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,79; -48,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 32,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,48; 12,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,56; -48,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,19; 26,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,02; 7,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,41; -51,7</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,89</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,26</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,47</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,7</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,94; 13,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,86; 0,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,91; -9,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,22; 3,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,18; -11,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,19; -18,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 7,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,38; -6,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,54; -14,93</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,77%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,18%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,62%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,65%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,77%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,15; 49,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,58; 1,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,39; -34,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,54; 10,25</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,69; -31,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,72; -53,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,78; 23,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,45; -20,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,22; -48,17</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,79</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,9</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 6,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; -1,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,54; -10,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 3,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; -8,28</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,06; -21,57</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 4,56</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; -5,07</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,41; -17,3</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,91%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,87%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,87%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,16%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,94%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,52%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,5; 23,36</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,62; -3,71</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,33; -37,79</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 10,95</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,48; -22,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,48; -60,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,76; 14,33</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,02; -15,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,12; -52,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P26-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P26-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-21,6</t>
+          <t>-19,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,42</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>-10,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-25,14</t>
+          <t>-28,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-6,41</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-23,56</t>
+          <t>-23,78</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 13,29</t>
+          <t>-5,42; 4,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 9,97</t>
+          <t>-7,87; 2,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,06; -9,57</t>
+          <t>-23,61; -14,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 29,27</t>
+          <t>-4,86; 6,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,59; 6,24</t>
+          <t>-15,11; -5,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,31; -14,47</t>
+          <t>-32,57; -23,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 16,9</t>
+          <t>-4,1; 3,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 4,24</t>
+          <t>-10,17; -2,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-31,41; -16,16</t>
+          <t>-26,86; -20,42</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,35%</t>
+          <t>-9,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-63,22%</t>
+          <t>-68,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,42%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,68%</t>
+          <t>-27,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-71,08%</t>
+          <t>-75,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>-0,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,0%</t>
+          <t>-19,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-67,82%</t>
+          <t>-72,57%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,21; 49,49</t>
+          <t>-17,75; 16,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 35,49</t>
+          <t>-25,08; 8,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-84,87; -31,21</t>
+          <t>-78,36; -54,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 100,58</t>
+          <t>-12,19; 17,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,55; 22,96</t>
+          <t>-37,81; -14,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-83,47; -51,21</t>
+          <t>-80,71; -68,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 57,01</t>
+          <t>-11,74; 10,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,81; 14,33</t>
+          <t>-29,3; -9,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-79,84; -52,04</t>
+          <t>-77,67; -65,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-19,29</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,78</t>
+          <t>-12,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-29,3</t>
+          <t>-23,34</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>-8,73</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-24,23</t>
+          <t>-10,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 4,87</t>
+          <t>-0,14; 8,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 2,74</t>
+          <t>-9,52; -0,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,02; -14,77</t>
+          <t>-21,03; 35,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 3,68</t>
+          <t>-2,06; 7,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,21; -4,98</t>
+          <t>-17,11; -8,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,18; -24,66</t>
+          <t>-26,61; -19,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 2,56</t>
+          <t>-0,43; 6,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,63; -2,6</t>
+          <t>-11,74; -5,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-27,51; -21,16</t>
+          <t>-22,18; 18,89</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,68%</t>
+          <t>-17,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-71,4%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,78%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-28,5%</t>
+          <t>-32,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-77,44%</t>
+          <t>-61,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,31%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-20,49%</t>
+          <t>-26,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-74,84%</t>
+          <t>-31,74%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 20,6</t>
+          <t>-0,43; 32,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 11,61</t>
+          <t>-30,59; -2,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-80,31; -57,3</t>
+          <t>-71,61; 119,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 10,91</t>
+          <t>-5,19; 20,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,74; -14,16</t>
+          <t>-42,85; -22,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,14; -70,6</t>
+          <t>-67,53; -54,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 8,74</t>
+          <t>-1,44; 20,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,99; -8,4</t>
+          <t>-33,47; -17,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-79,75; -68,46</t>
+          <t>-65,84; 57,59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,13</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-15,08</t>
+          <t>-17,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-12,43</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-23,63</t>
+          <t>-23,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-8,73</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-19,31</t>
+          <t>-20,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 8,56</t>
+          <t>-2,13; 8,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,52; -0,76</t>
+          <t>-6,52; 3,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 1,35</t>
+          <t>-22,6; -12,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 7,06</t>
+          <t>-0,42; 10,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,11; -8,03</t>
+          <t>-6,76; 4,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,89; -19,7</t>
+          <t>-32,48; -17,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 6,53</t>
+          <t>0,75; 8,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -5,52</t>
+          <t>-4,87; 2,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-22,74; -10,38</t>
+          <t>-25,83; -16,35</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-17,81%</t>
+          <t>-5,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-52,34%</t>
+          <t>-59,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-32,99%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-62,73%</t>
+          <t>-65,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-26,3%</t>
+          <t>-4,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-58,17%</t>
+          <t>-62,4%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 32,62</t>
+          <t>-6,31; 30,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,59; -2,88</t>
+          <t>-20,25; 13,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,06; 4,84</t>
+          <t>-70,55; -44,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 20,61</t>
+          <t>-1,0; 32,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,85; -22,95</t>
+          <t>-17,48; 12,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,3; -55,55</t>
+          <t>-82,81; -51,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 20,34</t>
+          <t>2,19; 26,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,47; -17,74</t>
+          <t>-14,02; 7,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,94; -31,44</t>
+          <t>-75,68; -52,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-18,21</t>
+          <t>-12,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-15,26</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-21,68</t>
+          <t>-22,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-9,7</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-19,78</t>
+          <t>-17,85</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 8,2</t>
+          <t>3,94; 13,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 3,67</t>
+          <t>-7,86; 0,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,14; -13,23</t>
+          <t>-16,26; -8,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 10,61</t>
+          <t>-5,22; 3,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 4,19</t>
+          <t>-19,18; -11,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-28,99; -16,59</t>
+          <t>-27,34; -18,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 8,13</t>
+          <t>0,96; 7,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,23</t>
+          <t>-12,38; -6,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-23,56; -15,92</t>
+          <t>-20,71; -14,69</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,47%</t>
+          <t>-12,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-61,24%</t>
+          <t>-43,88%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>-41,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-60,32%</t>
+          <t>-61,76%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>-29,65%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-60,28%</t>
+          <t>-54,58%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 30,56</t>
+          <t>12,15; 49,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 13,67</t>
+          <t>-26,58; 1,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-71,79; -48,23</t>
+          <t>-54,41; -31,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 32,74</t>
+          <t>-13,54; 10,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 12,47</t>
+          <t>-48,69; -31,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-75,56; -48,83</t>
+          <t>-70,21; -53,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,19; 26,63</t>
+          <t>2,78; 23,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 7,36</t>
+          <t>-36,45; -20,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-69,41; -51,7</t>
+          <t>-61,43; -47,55</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,02</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-12,89</t>
+          <t>-10,14</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-15,26</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-22,47</t>
+          <t>-24,21</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-9,7</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-17,92</t>
+          <t>-17,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,94; 13,03</t>
+          <t>1,96; 6,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 0,36</t>
+          <t>-5,51; -1,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-16,91; -9,06</t>
+          <t>-17,75; 9,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 3,63</t>
+          <t>-1,06; 3,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-19,18; -11,02</t>
+          <t>-12,87; -8,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-26,19; -18,56</t>
+          <t>-26,97; -21,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,96; 7,16</t>
+          <t>1,24; 4,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,38; -6,37</t>
+          <t>-8,42; -5,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-20,54; -14,93</t>
+          <t>-21,02; -5,54</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-12,77%</t>
+          <t>-11,91%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-46,18%</t>
+          <t>-35,41%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-2,09%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-41,16%</t>
+          <t>-27,87%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-60,62%</t>
+          <t>-65,27%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-29,65%</t>
+          <t>-20,94%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-54,77%</t>
+          <t>-52,56%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>12,15; 49,87</t>
+          <t>6,5; 23,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 1,44</t>
+          <t>-18,62; -3,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-56,39; -34,6</t>
+          <t>-61,2; 36,1</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 10,25</t>
+          <t>-2,72; 10,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-48,69; -31,36</t>
+          <t>-33,48; -22,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-66,72; -53,66</t>
+          <t>-71,67; -60,58</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,78; 23,19</t>
+          <t>3,76; 14,33</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-36,45; -20,62</t>
+          <t>-25,02; -15,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,22; -48,17</t>
+          <t>-63,81; -17,0</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>4,25</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-3,41</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-16,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-10,34</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-23,79</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,96</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-6,89</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-19,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 6,52</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-5,51; -1,01</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-18,54; -10,77</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 3,97</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-12,87; -8,28</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-26,06; -21,57</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 4,56</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-8,42; -5,07</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-21,41; -17,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>14,84%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-11,91%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-55,87%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>4,44%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-27,87%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-64,16%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>8,99%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-20,94%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-60,52%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>6,5; 23,36</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-18,62; -3,71</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-63,33; -37,79</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 10,95</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-33,48; -22,9</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-68,48; -60,29</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>3,76; 14,33</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-25,02; -15,89</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-64,12; -52,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P26-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P26-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 4,27</t>
+          <t>-5,35; 4,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 2,15</t>
+          <t>-7,61; 2,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,61; -14,38</t>
+          <t>-23,89; -14,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 6,17</t>
+          <t>-4,82; 5,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,11; -5,01</t>
+          <t>-15,18; -4,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,57; -23,99</t>
+          <t>-32,32; -24,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 3,2</t>
+          <t>-4,07; 3,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,17; -2,81</t>
+          <t>-9,89; -2,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-26,86; -20,42</t>
+          <t>-27,07; -20,46</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 16,6</t>
+          <t>-17,96; 20,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 8,73</t>
+          <t>-25,23; 9,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-78,36; -54,98</t>
+          <t>-78,21; -54,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 17,45</t>
+          <t>-12,03; 16,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,81; -14,24</t>
+          <t>-37,89; -13,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,71; -68,41</t>
+          <t>-80,79; -68,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 10,29</t>
+          <t>-11,54; 12,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,3; -9,01</t>
+          <t>-28,69; -8,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-77,67; -65,89</t>
+          <t>-77,67; -65,62</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 8,56</t>
+          <t>-0,6; 8,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; -0,76</t>
+          <t>-9,79; -1,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 35,85</t>
+          <t>-20,98; 32,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 7,06</t>
+          <t>-2,42; 6,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,11; -8,03</t>
+          <t>-16,92; -7,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,61; -19,45</t>
+          <t>-27,57; -19,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 6,53</t>
+          <t>0,04; 6,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -5,52</t>
+          <t>-11,67; -5,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 18,89</t>
+          <t>-22,02; 19,11</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 32,62</t>
+          <t>-1,92; 30,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,59; -2,88</t>
+          <t>-31,04; -4,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-71,61; 119,52</t>
+          <t>-70,63; 116,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 20,61</t>
+          <t>-5,93; 19,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,85; -22,95</t>
+          <t>-41,5; -22,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,53; -54,94</t>
+          <t>-68,07; -54,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 20,34</t>
+          <t>0,09; 20,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,47; -17,74</t>
+          <t>-33,57; -17,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-65,84; 57,59</t>
+          <t>-65,7; 57,88</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 8,2</t>
+          <t>-1,52; 8,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 3,67</t>
+          <t>-6,48; 4,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,6; -12,48</t>
+          <t>-22,27; -12,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 10,61</t>
+          <t>0,5; 10,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 4,19</t>
+          <t>-6,17; 4,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,48; -17,72</t>
+          <t>-34,02; -18,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 8,13</t>
+          <t>0,53; 8,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,23</t>
+          <t>-5,0; 2,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-25,83; -16,35</t>
+          <t>-25,5; -16,41</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 30,56</t>
+          <t>-4,8; 32,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 13,67</t>
+          <t>-19,98; 17,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,55; -44,72</t>
+          <t>-69,95; -45,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 32,74</t>
+          <t>1,3; 32,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 12,47</t>
+          <t>-16,32; 12,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,81; -51,04</t>
+          <t>-84,8; -52,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 26,63</t>
+          <t>1,49; 26,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 7,36</t>
+          <t>-14,46; 6,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-75,68; -52,73</t>
+          <t>-75,66; -51,97</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 13,03</t>
+          <t>4,48; 13,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 0,36</t>
+          <t>-8,24; 0,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,26; -8,31</t>
+          <t>-16,54; -8,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 3,63</t>
+          <t>-5,01; 3,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,18; -11,02</t>
+          <t>-19,5; -10,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,34; -18,95</t>
+          <t>-27,68; -18,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 7,16</t>
+          <t>0,65; 6,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,38; -6,37</t>
+          <t>-12,73; -7,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-20,71; -14,69</t>
+          <t>-20,77; -14,92</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,15; 49,87</t>
+          <t>14,81; 52,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 1,44</t>
+          <t>-26,6; 2,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,41; -31,18</t>
+          <t>-54,93; -30,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 10,25</t>
+          <t>-12,95; 11,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,69; -31,36</t>
+          <t>-50,02; -30,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-70,21; -53,97</t>
+          <t>-70,67; -53,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,78; 23,19</t>
+          <t>1,82; 21,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,45; -20,62</t>
+          <t>-37,23; -22,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-61,43; -47,55</t>
+          <t>-61,67; -47,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,52</t>
+          <t>2,08; 6,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,51; -1,01</t>
+          <t>-5,71; -0,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 9,94</t>
+          <t>-17,35; 10,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,97</t>
+          <t>-0,91; 4,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -8,28</t>
+          <t>-12,79; -8,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-26,97; -21,78</t>
+          <t>-26,88; -21,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,56</t>
+          <t>1,28; 4,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -5,07</t>
+          <t>-8,53; -5,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-21,02; -5,54</t>
+          <t>-21,01; -6,08</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>6,5; 23,36</t>
+          <t>6,98; 24,33</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,62; -3,71</t>
+          <t>-19,11; -3,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-61,2; 36,1</t>
+          <t>-59,93; 35,66</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 10,95</t>
+          <t>-2,37; 11,53</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,48; -22,9</t>
+          <t>-33,19; -22,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-71,67; -60,58</t>
+          <t>-71,9; -61,01</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>3,76; 14,33</t>
+          <t>3,78; 14,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-25,02; -15,89</t>
+          <t>-25,33; -16,61</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-63,81; -17,0</t>
+          <t>-63,74; -18,62</t>
         </is>
       </c>
     </row>
